--- a/output/0/tRNA-Lys-CTT-11-1.xlsx
+++ b/output/0/tRNA-Lys-CTT-11-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>chr19</t>
   </si>
@@ -135,57 +135,6 @@
   </si>
   <si>
     <t>82</t>
-  </si>
-  <si>
-    <t>52425679</t>
-  </si>
-  <si>
-    <t>52425702</t>
-  </si>
-  <si>
-    <t>52425682</t>
-  </si>
-  <si>
-    <t>TGGGGACTGGAATCATCTGA</t>
-  </si>
-  <si>
-    <t>84% (61)</t>
-  </si>
-  <si>
-    <t>63% (51)</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>52425853</t>
-  </si>
-  <si>
-    <t>52425876</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>52425873</t>
-  </si>
-  <si>
-    <t>AACCAAGCTTGTCCAACCTG</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>95% (67)</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>57</t>
   </si>
 </sst>
 </file>
@@ -230,7 +179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -472,124 +421,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>48</v>
-      </c>
-      <c r="R5" t="s">
-        <v>15</v>
-      </c>
-      <c r="S5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>57</v>
-      </c>
-      <c r="R6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
